--- a/proj1/medicoes/ex3.1.1/dados.xlsx
+++ b/proj1/medicoes/ex3.1.1/dados.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C59"/>
+  <dimension ref="A1:D59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -449,6 +449,11 @@
           <t>avg_misses</t>
         </is>
       </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>avg_time</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -460,6 +465,9 @@
       <c r="C2" t="n">
         <v>0.000746</v>
       </c>
+      <c r="D2" t="n">
+        <v>0.003608</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -471,6 +479,9 @@
       <c r="C3" t="n">
         <v>0.000686</v>
       </c>
+      <c r="D3" t="n">
+        <v>0.003054</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -482,6 +493,9 @@
       <c r="C4" t="n">
         <v>0.000377</v>
       </c>
+      <c r="D4" t="n">
+        <v>0.002644</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -493,6 +507,9 @@
       <c r="C5" t="n">
         <v>0.000366</v>
       </c>
+      <c r="D5" t="n">
+        <v>0.002432</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -504,6 +521,9 @@
       <c r="C6" t="n">
         <v>0.000178</v>
       </c>
+      <c r="D6" t="n">
+        <v>0.00235</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -515,6 +535,9 @@
       <c r="C7" t="n">
         <v>0.00012</v>
       </c>
+      <c r="D7" t="n">
+        <v>0.002275</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -526,6 +549,9 @@
       <c r="C8" t="n">
         <v>0.000286</v>
       </c>
+      <c r="D8" t="n">
+        <v>0.0023</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -537,6 +563,9 @@
       <c r="C9" t="n">
         <v>0.000114</v>
       </c>
+      <c r="D9" t="n">
+        <v>0.002173</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -548,6 +577,9 @@
       <c r="C10" t="n">
         <v>3.6e-05</v>
       </c>
+      <c r="D10" t="n">
+        <v>0.002101</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -559,6 +591,9 @@
       <c r="C11" t="n">
         <v>3.4e-05</v>
       </c>
+      <c r="D11" t="n">
+        <v>0.002103</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -570,6 +605,9 @@
       <c r="C12" t="n">
         <v>2.1e-05</v>
       </c>
+      <c r="D12" t="n">
+        <v>0.002057</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -581,6 +619,9 @@
       <c r="C13" t="n">
         <v>2.4e-05</v>
       </c>
+      <c r="D13" t="n">
+        <v>0.002134</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -592,6 +633,9 @@
       <c r="C14" t="n">
         <v>2.6e-05</v>
       </c>
+      <c r="D14" t="n">
+        <v>0.002234</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -603,6 +647,9 @@
       <c r="C15" t="n">
         <v>0.000957</v>
       </c>
+      <c r="D15" t="n">
+        <v>0.002338</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -614,6 +661,9 @@
       <c r="C16" t="n">
         <v>0.000857</v>
       </c>
+      <c r="D16" t="n">
+        <v>0.002353</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -625,6 +675,9 @@
       <c r="C17" t="n">
         <v>0.000709</v>
       </c>
+      <c r="D17" t="n">
+        <v>0.002341</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -636,6 +689,9 @@
       <c r="C18" t="n">
         <v>0.000721</v>
       </c>
+      <c r="D18" t="n">
+        <v>0.002295</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -647,6 +703,9 @@
       <c r="C19" t="n">
         <v>0.000721</v>
       </c>
+      <c r="D19" t="n">
+        <v>0.002348</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -658,6 +717,9 @@
       <c r="C20" t="n">
         <v>0.001138</v>
       </c>
+      <c r="D20" t="n">
+        <v>0.002348</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -669,6 +731,9 @@
       <c r="C21" t="n">
         <v>0.000313</v>
       </c>
+      <c r="D21" t="n">
+        <v>0.002262</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -680,6 +745,9 @@
       <c r="C22" t="n">
         <v>0.000311</v>
       </c>
+      <c r="D22" t="n">
+        <v>0.002287</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -691,6 +759,9 @@
       <c r="C23" t="n">
         <v>0.000153</v>
       </c>
+      <c r="D23" t="n">
+        <v>0.002162</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -702,6 +773,9 @@
       <c r="C24" t="n">
         <v>0.000124</v>
       </c>
+      <c r="D24" t="n">
+        <v>0.002133</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -713,6 +787,9 @@
       <c r="C25" t="n">
         <v>2.9e-05</v>
       </c>
+      <c r="D25" t="n">
+        <v>0.002081</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -724,6 +801,9 @@
       <c r="C26" t="n">
         <v>9e-06</v>
       </c>
+      <c r="D26" t="n">
+        <v>0.002159</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -735,6 +815,9 @@
       <c r="C27" t="n">
         <v>1.2e-05</v>
       </c>
+      <c r="D27" t="n">
+        <v>0.002257</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -746,6 +829,9 @@
       <c r="C28" t="n">
         <v>1e-05</v>
       </c>
+      <c r="D28" t="n">
+        <v>0.002161</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -757,6 +843,9 @@
       <c r="C29" t="n">
         <v>0.002931</v>
       </c>
+      <c r="D29" t="n">
+        <v>0.002287</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -768,6 +857,9 @@
       <c r="C30" t="n">
         <v>0.003435</v>
       </c>
+      <c r="D30" t="n">
+        <v>0.002295</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -779,6 +871,9 @@
       <c r="C31" t="n">
         <v>0.005024</v>
       </c>
+      <c r="D31" t="n">
+        <v>0.002263</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -790,6 +885,9 @@
       <c r="C32" t="n">
         <v>0.011389</v>
       </c>
+      <c r="D32" t="n">
+        <v>0.002255</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -801,6 +899,9 @@
       <c r="C33" t="n">
         <v>0.017709</v>
       </c>
+      <c r="D33" t="n">
+        <v>0.00214</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -812,6 +913,9 @@
       <c r="C34" t="n">
         <v>0.027712</v>
       </c>
+      <c r="D34" t="n">
+        <v>0.002191</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -823,6 +927,9 @@
       <c r="C35" t="n">
         <v>0.030335</v>
       </c>
+      <c r="D35" t="n">
+        <v>0.00207</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -834,6 +941,9 @@
       <c r="C36" t="n">
         <v>0.043477</v>
       </c>
+      <c r="D36" t="n">
+        <v>0.002283</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -845,6 +955,9 @@
       <c r="C37" t="n">
         <v>0.094802</v>
       </c>
+      <c r="D37" t="n">
+        <v>0.002275</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -856,6 +969,9 @@
       <c r="C38" t="n">
         <v>0.138969</v>
       </c>
+      <c r="D38" t="n">
+        <v>0.002149</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -867,6 +983,9 @@
       <c r="C39" t="n">
         <v>0.168746</v>
       </c>
+      <c r="D39" t="n">
+        <v>0.002055</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -878,6 +997,9 @@
       <c r="C40" t="n">
         <v>8.3e-05</v>
       </c>
+      <c r="D40" t="n">
+        <v>0.002151</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -889,6 +1011,9 @@
       <c r="C41" t="n">
         <v>3.9e-05</v>
       </c>
+      <c r="D41" t="n">
+        <v>0.002266</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -900,6 +1025,9 @@
       <c r="C42" t="n">
         <v>1.3e-05</v>
       </c>
+      <c r="D42" t="n">
+        <v>0.002257</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -911,6 +1039,9 @@
       <c r="C43" t="n">
         <v>8e-06</v>
       </c>
+      <c r="D43" t="n">
+        <v>0.002154</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -922,6 +1053,9 @@
       <c r="C44" t="n">
         <v>0.015657</v>
       </c>
+      <c r="D44" t="n">
+        <v>0.002173</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -933,6 +1067,9 @@
       <c r="C45" t="n">
         <v>0.031318</v>
       </c>
+      <c r="D45" t="n">
+        <v>0.002103</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -944,6 +1081,9 @@
       <c r="C46" t="n">
         <v>0.062692</v>
       </c>
+      <c r="D46" t="n">
+        <v>0.00228</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -955,6 +1095,9 @@
       <c r="C47" t="n">
         <v>0.125145</v>
       </c>
+      <c r="D47" t="n">
+        <v>0.002284</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -966,6 +1109,9 @@
       <c r="C48" t="n">
         <v>0.250283</v>
       </c>
+      <c r="D48" t="n">
+        <v>0.00227</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -977,6 +1123,9 @@
       <c r="C49" t="n">
         <v>0.500522</v>
       </c>
+      <c r="D49" t="n">
+        <v>0.002144</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -988,6 +1137,9 @@
       <c r="C50" t="n">
         <v>0.998047</v>
       </c>
+      <c r="D50" t="n">
+        <v>0.002089</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -999,6 +1151,9 @@
       <c r="C51" t="n">
         <v>1.026744</v>
       </c>
+      <c r="D51" t="n">
+        <v>0.002027</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -1010,6 +1165,9 @@
       <c r="C52" t="n">
         <v>1.029113</v>
       </c>
+      <c r="D52" t="n">
+        <v>0.001974</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -1021,6 +1179,9 @@
       <c r="C53" t="n">
         <v>1.020446</v>
       </c>
+      <c r="D53" t="n">
+        <v>0.001999</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -1032,6 +1193,9 @@
       <c r="C54" t="n">
         <v>0.980751</v>
       </c>
+      <c r="D54" t="n">
+        <v>0.001985</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -1043,6 +1207,9 @@
       <c r="C55" t="n">
         <v>1.36703</v>
       </c>
+      <c r="D55" t="n">
+        <v>0.003569</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -1054,6 +1221,9 @@
       <c r="C56" t="n">
         <v>1.055235</v>
       </c>
+      <c r="D56" t="n">
+        <v>0.005237</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -1065,6 +1235,9 @@
       <c r="C57" t="n">
         <v>3.9e-05</v>
       </c>
+      <c r="D57" t="n">
+        <v>0.002301</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -1076,6 +1249,9 @@
       <c r="C58" t="n">
         <v>8e-06</v>
       </c>
+      <c r="D58" t="n">
+        <v>0.002272</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -1086,6 +1262,9 @@
       </c>
       <c r="C59" t="n">
         <v>1e-05</v>
+      </c>
+      <c r="D59" t="n">
+        <v>0.002222</v>
       </c>
     </row>
   </sheetData>
